--- a/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasena</t>
-  </si>
-  <si>
-    <t>IdPedido</t>
-  </si>
-  <si>
-    <t>Id_Cliente</t>
-  </si>
-  <si>
-    <t>Estatus_Pedido</t>
-  </si>
-  <si>
-    <t>Creado_desde</t>
-  </si>
-  <si>
-    <t>Creado_hasta</t>
-  </si>
-  <si>
-    <t>Aprob. Ventas</t>
-  </si>
-  <si>
-    <t>Aprob. Financiera</t>
-  </si>
-  <si>
-    <t>Aprob. Produccion</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>Creado</t>
-  </si>
-  <si>
-    <t>24/01/2020</t>
-  </si>
-  <si>
-    <t>Aprobar</t>
-  </si>
-  <si>
-    <t>Denegar</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -121,21 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,233 +353,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Idioma</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Contrasena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IdPedido</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Id_Cliente</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Estatus_Pedido</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Creado_desde</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Creado_hasta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Aprob. Ventas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Aprob. Financiera</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Aprob. Produccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>121</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>117</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>121</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>125</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>126</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24/01/2020</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>24/01/2020</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Denegar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Denegar</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
@@ -1,37 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750F7D9-35EE-4E29-9514-4626B13C2A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>Id_Cliente</t>
+  </si>
+  <si>
+    <t>Estatus_Pedido</t>
+  </si>
+  <si>
+    <t>Creado_desde</t>
+  </si>
+  <si>
+    <t>Creado_hasta</t>
+  </si>
+  <si>
+    <t>Aprob. Financiera</t>
+  </si>
+  <si>
+    <t>Aprob. Produccion</t>
+  </si>
+  <si>
+    <t>automated.test@grupokaizen.net</t>
+  </si>
+  <si>
+    <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>Creado</t>
+  </si>
+  <si>
+    <t>04/02/2020</t>
+  </si>
+  <si>
+    <t>Aprobar</t>
+  </si>
+  <si>
+    <t>Denegar</t>
+  </si>
+  <si>
+    <t>AprobVentas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +115,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,128 +442,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Idioma</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Contrasena</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IdPedido</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Id_Cliente</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Estatus_Pedido</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Creado_desde</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Creado_hasta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Aprob. Ventas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Aprob. Financiera</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Aprob. Produccion</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>121</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>165</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>24/01/2020</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>24/01/2020</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Denegar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Denegar</t>
-        </is>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>166</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
@@ -1,106 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750F7D9-35EE-4E29-9514-4626B13C2A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasena</t>
-  </si>
-  <si>
-    <t>IdPedido</t>
-  </si>
-  <si>
-    <t>Id_Cliente</t>
-  </si>
-  <si>
-    <t>Estatus_Pedido</t>
-  </si>
-  <si>
-    <t>Creado_desde</t>
-  </si>
-  <si>
-    <t>Creado_hasta</t>
-  </si>
-  <si>
-    <t>Aprob. Financiera</t>
-  </si>
-  <si>
-    <t>Aprob. Produccion</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>Creado</t>
-  </si>
-  <si>
-    <t>04/02/2020</t>
-  </si>
-  <si>
-    <t>Aprobar</t>
-  </si>
-  <si>
-    <t>Denegar</t>
-  </si>
-  <si>
-    <t>AprobVentas</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,46 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -442,157 +353,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Idioma</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Contrasena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IdPedido</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Id_Cliente</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Estatus_Pedido</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Creado_desde</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Creado_hasta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Aprob. Ventas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Aprob. Financiera</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Aprob. Produccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>190</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>192</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>193</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Denegar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>194</v>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>195</v>
+      </c>
+      <c r="E6" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Denegar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>196</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>163</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>165</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>166</v>
-      </c>
-      <c r="E4">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>197</v>
+      </c>
+      <c r="E8" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -450,12 +450,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/02/2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>07/02/2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -476,7 +476,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -501,12 +501,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/02/2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>07/02/2020</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -552,12 +552,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/02/2020</t>
+          <t>11/02/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>07/02/2020</t>
+          <t>11/02/2020</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -567,216 +567,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aprobar</t>
+          <t>Denegar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Denegar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>194</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>195</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Denegar</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>196</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>197</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
         </is>
       </c>
     </row>

--- a/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
@@ -1,37 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D9588-6100-4070-B31E-87FF449AA935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="348" yWindow="3444" windowWidth="21504" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>Id_Cliente</t>
+  </si>
+  <si>
+    <t>Estatus_Pedido</t>
+  </si>
+  <si>
+    <t>Aprob. Ventas</t>
+  </si>
+  <si>
+    <t>Aprob. Financiera</t>
+  </si>
+  <si>
+    <t>Aprob. Produccion</t>
+  </si>
+  <si>
+    <t>automated.test@grupokaizen.net</t>
+  </si>
+  <si>
+    <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>Creado</t>
+  </si>
+  <si>
+    <t>Aprobar</t>
+  </si>
+  <si>
+    <t>Denegar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,31 +110,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -112,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +226,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +278,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,230 +471,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Idioma</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Contrasena</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IdPedido</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Id_Cliente</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Estatus_Pedido</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Creado_desde</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Creado_hasta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Aprob. Ventas</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Aprob. Financiera</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Aprob. Produccion</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>246</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>247</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>214</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Creado</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11/02/2020</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>11/02/2020</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Aprobar</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Denegar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Denegar</t>
-        </is>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
+++ b/Pedidos/DataExcel/AprobacionesPedidos_20pies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D9588-6100-4070-B31E-87FF449AA935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B93F42-C2CE-4B6A-89F0-F678F2A18F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3444" windowWidth="21504" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Idioma</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Aprobar</t>
-  </si>
-  <si>
-    <t>Denegar</t>
   </si>
 </sst>
 </file>
@@ -472,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H5:H6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -520,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -538,41 +535,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>247</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="H6" s="2"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
